--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9305633333333333</v>
+        <v>1.644726333333334</v>
       </c>
       <c r="H2">
-        <v>2.79169</v>
+        <v>4.934179</v>
       </c>
       <c r="I2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="J2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3709166510988889</v>
+        <v>0.6555774998665557</v>
       </c>
       <c r="R2">
-        <v>3.33824985989</v>
+        <v>5.900197498799001</v>
       </c>
       <c r="S2">
-        <v>0.01768777137856805</v>
+        <v>0.03084360558270512</v>
       </c>
       <c r="T2">
-        <v>0.01768777137856806</v>
+        <v>0.03084360558270512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>132.462531</v>
       </c>
       <c r="I3">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="J3">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>158.396177781711</v>
       </c>
       <c r="S3">
-        <v>0.8392647337471152</v>
+        <v>0.828024694817689</v>
       </c>
       <c r="T3">
-        <v>0.8392647337471153</v>
+        <v>0.828024694817689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>22.577421</v>
       </c>
       <c r="I4">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="J4">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>26.997651060801</v>
       </c>
       <c r="S4">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
       <c r="T4">
-        <v>0.1430474948743168</v>
+        <v>0.1411316995996059</v>
       </c>
     </row>
   </sheetData>
